--- a/其他/watch.xlsx
+++ b/其他/watch.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC9584-BE5E-4275-895E-83F0B6AD618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
-    <sheet name="A.Lange&amp;Sohne" sheetId="2" r:id="rId2"/>
+    <sheet name="经典系列及其参考价格" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总表!$D$1:$F$80</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="237">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,13 +725,272 @@
   </si>
   <si>
     <t>真力时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕刻与卫星绘画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能且复杂 手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属机械表 手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国皇室最爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路 汽灯指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀飞轮 精钢运动表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度伊朗英国保加利亚王室  
+俄国芭蕾 装饰艺术 非洲艺术 波普艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空业精密计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海钟 科学测量仪器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">珠宝 精准计时码表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光动能 电子业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝镶嵌技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新技术研发 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水表始祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒桶表盘数字刻度设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳机芯 硅擒纵轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三金陀飞轮 顶级复杂功能时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格标准手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝黄钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">复杂功能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄重简约风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然橡胶贵金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特前卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体时标技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珐琅工艺 镌刻工艺 镶嵌工艺 镂空机芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装饰精巧机械复杂 乾隆喜欢 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆功能机芯结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合艺术与机械 前卫大胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极富现代感设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国国家飞行大队计时器 奥运计时器
+ 登上月球腕表 最深潜水表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精密机械机芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利海军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统工艺日内瓦7传统制表工艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超薄腕表 机芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗磨损高科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高科技材质 卫星材料 碳钎维技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一款商业化指针式石英表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂功能 手工 珐琅工艺 雕刻工艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工合成材料 便宜 防水防震 时尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最先采用塑料木材石头制表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国王室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">历史最悠久 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国总统最爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀飞轮停秒功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18k蜂蜜金表壳 涂层半透明表盘
+调校小事 动力储存72h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报时停顿消除 安全装置音锤阻挡器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instrument Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal HMS1 Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal TE88 Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal TE8 Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞郎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,8 +1027,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -765,6 +1043,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -813,7 +1094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,9 +1127,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,6 +1179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,21 +1371,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1405,11 @@
       <c r="F1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1106,8 +1425,11 @@
       <c r="E2">
         <v>1845</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1123,8 +1445,11 @@
       <c r="E3">
         <v>1764</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1141,7 +1466,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1157,8 +1482,11 @@
       <c r="E5">
         <v>1735</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1175,7 +1503,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1191,8 +1519,11 @@
       <c r="E7">
         <v>1775</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1208,8 +1539,11 @@
       <c r="E8">
         <v>1891</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1225,8 +1559,11 @@
       <c r="E9">
         <v>1830</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1242,8 +1579,11 @@
       <c r="E10">
         <v>1858</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1259,8 +1599,11 @@
       <c r="E11">
         <v>1884</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1277,7 +1620,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1294,7 +1637,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1311,7 +1654,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1328,7 +1671,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1341,8 +1684,11 @@
       <c r="E16">
         <v>2013</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1358,8 +1704,11 @@
       <c r="E17">
         <v>1860</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1375,8 +1724,11 @@
       <c r="E18">
         <v>1983</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1392,8 +1744,11 @@
       <c r="E19">
         <v>1918</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1409,8 +1764,11 @@
       <c r="E20">
         <v>1984</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1426,8 +1784,11 @@
       <c r="E21">
         <v>1955</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1443,8 +1804,11 @@
       <c r="E22">
         <v>1924</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1460,8 +1824,11 @@
       <c r="E23">
         <v>2002</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1478,7 +1845,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1494,8 +1861,11 @@
       <c r="E25">
         <v>1889</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1512,7 +1882,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1528,8 +1898,11 @@
       <c r="E27">
         <v>1842</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1545,8 +1918,11 @@
       <c r="E28">
         <v>1991</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1562,8 +1938,11 @@
       <c r="E29">
         <v>1988</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1579,8 +1958,11 @@
       <c r="E30">
         <v>1791</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1596,8 +1978,11 @@
       <c r="E31">
         <v>1845</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1613,8 +1998,11 @@
       <c r="E32">
         <v>1960</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1630,8 +2018,11 @@
       <c r="E33">
         <v>2004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1648,7 +2039,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1664,8 +2055,11 @@
       <c r="E35">
         <v>1828</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1682,7 +2076,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1699,7 +2093,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1716,7 +2110,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1732,8 +2126,11 @@
       <c r="E39">
         <v>1980</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1749,8 +2146,11 @@
       <c r="E40">
         <v>1997</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1763,8 +2163,11 @@
       <c r="E41">
         <v>2012</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1781,7 +2184,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1797,8 +2200,11 @@
       <c r="E43">
         <v>1833</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1814,8 +2220,11 @@
       <c r="E44">
         <v>1738</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1832,7 +2241,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1849,7 +2258,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1865,8 +2274,11 @@
       <c r="E47">
         <v>1961</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1879,8 +2291,11 @@
       <c r="E48">
         <v>2005</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1897,7 +2312,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1914,7 +2329,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1930,8 +2345,11 @@
       <c r="E51">
         <v>1881</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1947,8 +2365,11 @@
       <c r="E52">
         <v>1990</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1964,8 +2385,11 @@
       <c r="E53">
         <v>1848</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1981,8 +2405,11 @@
       <c r="E54">
         <v>1904</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1998,8 +2425,11 @@
       <c r="E55">
         <v>1860</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2016,7 +2446,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2032,8 +2462,11 @@
       <c r="E57">
         <v>1839</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2049,8 +2482,11 @@
       <c r="E58">
         <v>1874</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2066,8 +2502,11 @@
       <c r="E59">
         <v>1917</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2084,7 +2523,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2101,7 +2540,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2114,8 +2553,11 @@
       <c r="E62">
         <v>2009</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2131,8 +2573,11 @@
       <c r="E63">
         <v>2001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2148,8 +2593,11 @@
       <c r="E64">
         <v>1995</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2166,7 +2614,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2182,8 +2630,11 @@
       <c r="E66">
         <v>1881</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2196,8 +2647,11 @@
       <c r="E67">
         <v>2002</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2213,8 +2667,11 @@
       <c r="E68">
         <v>1983</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2231,7 +2688,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2247,8 +2704,11 @@
       <c r="E70">
         <v>1837</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2264,8 +2724,11 @@
       <c r="E71">
         <v>1853</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2281,8 +2744,11 @@
       <c r="E72">
         <v>1946</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2299,7 +2765,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2315,8 +2781,11 @@
       <c r="E74">
         <v>1775</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2332,8 +2801,11 @@
       <c r="E75">
         <v>1906</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2347,7 +2819,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2363,8 +2835,11 @@
       <c r="E77">
         <v>1858</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2380,8 +2855,14 @@
       <c r="E78">
         <v>1865</v>
       </c>
+      <c r="F78" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
+    <sortCondition ref="A1:A81"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2389,86 +2870,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="2">
+        <f>C2*1</f>
+        <v>2450000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="3">
+        <v>114000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2">
+        <f>C4*K2</f>
+        <v>832200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1.4</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="3">
+        <v>409000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="2">
+        <f>C5*K2</f>
+        <v>2985700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1.5</v>
       </c>
       <c r="B6">
         <v>1815</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="2">
+        <f>C6*1</f>
+        <v>1069000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1.6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="3">
+        <v>212000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="2">
+        <f>C7*1</f>
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1.7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>343000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="2">
+        <f>C8*1</f>
+        <v>343000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2.4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27900</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="2">
+        <f>C12*K3</f>
+        <v>203670</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +3101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
